--- a/data/data-members.xlsx
+++ b/data/data-members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolas/GitHub/workshops/datascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2C404-41AB-4B4A-B8F3-7AB4B8A98D25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8036601-DC25-5A47-9030-92059019FAD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
     <t>MTES2021</t>
   </si>
   <si>
-    <t>The Netherlands</t>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:A803"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B570" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B585" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A580" sqref="A580:A595"/>
@@ -6015,7 +6015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -6753,6 +6753,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Date_x0020_de_x0020_derni_x00e8_re_x0020_modification xmlns="d00851a3-98d5-4895-85b0-064e2216f632" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e8aa3a5b-f132-49e0-8c16-b529a19cb925" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d00851a3-98d5-4895-85b0-064e2216f632">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100711C356A031E7B49856B6533DAE966A3" ma:contentTypeVersion="17" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="ad678cbeae1a70dfc40201103ccb31d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d00851a3-98d5-4895-85b0-064e2216f632" xmlns:ns3="e8aa3a5b-f132-49e0-8c16-b529a19cb925" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5467d95c78dddd89cef1a66d041b6ed3" ns2:_="" ns3:_="">
     <xsd:import namespace="d00851a3-98d5-4895-85b0-064e2216f632"/>
@@ -7001,18 +7013,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Date_x0020_de_x0020_derni_x00e8_re_x0020_modification xmlns="d00851a3-98d5-4895-85b0-064e2216f632" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e8aa3a5b-f132-49e0-8c16-b529a19cb925" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d00851a3-98d5-4895-85b0-064e2216f632">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA46CE2-644E-4E37-A5D7-7C782448EBB5}">
   <ds:schemaRefs>
@@ -7022,6 +7022,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BDB6173-2C5B-468C-A6A4-5A1EE33560F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d00851a3-98d5-4895-85b0-064e2216f632"/>
+    <ds:schemaRef ds:uri="e8aa3a5b-f132-49e0-8c16-b529a19cb925"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86CA1C68-F0F5-42F9-B414-780CB0F5D5F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7038,15 +7049,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BDB6173-2C5B-468C-A6A4-5A1EE33560F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d00851a3-98d5-4895-85b0-064e2216f632"/>
-    <ds:schemaRef ds:uri="e8aa3a5b-f132-49e0-8c16-b529a19cb925"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>